--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>Doi</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,  Karen%Cimon%NULL%1,  Melissa%Severn%NULL%1,  Carmem L.%Pessoa-Silva%NULL%1,  John%Conly%NULL%1,  Malcolm Gracie%Semple%NULL%2,  Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,   Davide%Chiumello%NULL%3,   Sandra%Rossi%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,   Silvia%Coppola%NULL%2,   Silvia%Coppola%NULL%0,   Massimo%Cressoni%NULL%1,   Mattia%Busana%NULL%2,   Mattia%Busana%NULL%0,   Sandra%Rossi%NULL%0,   Sandra%Rossi%NULL%0,   Davide%Chiumello%NULL%0,   Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,   Karen%Cimon%NULL%1,   Melissa%Severn%NULL%1,   Carmem L.%Pessoa-Silva%NULL%1,   John%Conly%NULL%1,   Malcolm Gracie%Semple%NULL%2,   Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -437,6 +455,9 @@
       <c r="H1" t="s">
         <v>15</v>
       </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -452,7 +473,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -462,6 +483,9 @@
       </c>
       <c r="H2" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -478,7 +502,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -488,6 +512,9 @@
       </c>
       <c r="H3" t="s">
         <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +531,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -514,6 +541,9 @@
       </c>
       <c r="H4" t="s">
         <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
   <si>
     <t>Doi</t>
   </si>
@@ -143,6 +143,42 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,   Karen%Cimon%NULL%1,   Melissa%Severn%NULL%1,   Carmem L.%Pessoa-Silva%NULL%1,   John%Conly%NULL%1,   Malcolm Gracie%Semple%NULL%2,   Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,    Davide%Chiumello%NULL%3,    Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,    Silvia%Coppola%NULL%2,    Silvia%Coppola%NULL%0,    Massimo%Cressoni%NULL%1,    Mattia%Busana%NULL%2,    Mattia%Busana%NULL%0,    Sandra%Rossi%NULL%0,    Sandra%Rossi%NULL%0,    Davide%Chiumello%NULL%0,    Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,    Karen%Cimon%NULL%1,    Melissa%Severn%NULL%1,    Carmem L.%Pessoa-Silva%NULL%1,    John%Conly%NULL%1,    Malcolm Gracie%Semple%NULL%2,    Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,     Davide%Chiumello%NULL%3,     Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,     Silvia%Coppola%NULL%2,     Silvia%Coppola%NULL%0,     Massimo%Cressoni%NULL%1,     Mattia%Busana%NULL%2,     Mattia%Busana%NULL%0,     Sandra%Rossi%NULL%0,     Sandra%Rossi%NULL%0,     Davide%Chiumello%NULL%0,     Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,     Karen%Cimon%NULL%1,     Melissa%Severn%NULL%1,     Carmem L.%Pessoa-Silva%NULL%1,     John%Conly%NULL%1,     Malcolm Gracie%Semple%NULL%2,     Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,      Davide%Chiumello%NULL%3,      Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,      Silvia%Coppola%NULL%2,      Silvia%Coppola%NULL%0,      Massimo%Cressoni%NULL%1,      Mattia%Busana%NULL%2,      Mattia%Busana%NULL%0,      Sandra%Rossi%NULL%0,      Sandra%Rossi%NULL%0,      Davide%Chiumello%NULL%0,      Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,      Karen%Cimon%NULL%1,      Melissa%Severn%NULL%1,      Carmem L.%Pessoa-Silva%NULL%1,      John%Conly%NULL%1,      Malcolm Gracie%Semple%NULL%2,      Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,       Davide%Chiumello%NULL%3,       Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,       Silvia%Coppola%NULL%2,       Silvia%Coppola%NULL%0,       Massimo%Cressoni%NULL%1,       Mattia%Busana%NULL%2,       Mattia%Busana%NULL%0,       Sandra%Rossi%NULL%0,       Sandra%Rossi%NULL%0,       Davide%Chiumello%NULL%0,       Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,       Karen%Cimon%NULL%1,       Melissa%Severn%NULL%1,       Carmem L.%Pessoa-Silva%NULL%1,       John%Conly%NULL%1,       Malcolm Gracie%Semple%NULL%2,       Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -473,7 +509,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -502,7 +538,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -531,7 +567,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="58">
   <si>
     <t>Doi</t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,       Karen%Cimon%NULL%1,       Melissa%Severn%NULL%1,       Carmem L.%Pessoa-Silva%NULL%1,       John%Conly%NULL%1,       Malcolm Gracie%Semple%NULL%2,       Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,        Davide%Chiumello%NULL%3,        Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,        Silvia%Coppola%NULL%2,        Silvia%Coppola%NULL%0,        Massimo%Cressoni%NULL%1,        Mattia%Busana%NULL%2,        Mattia%Busana%NULL%0,        Sandra%Rossi%NULL%0,        Sandra%Rossi%NULL%0,        Davide%Chiumello%NULL%0,        Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,        Karen%Cimon%NULL%1,        Melissa%Severn%NULL%1,        Carmem L.%Pessoa-Silva%NULL%1,        John%Conly%NULL%1,        Malcolm Gracie%Semple%NULL%2,        Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,         Davide%Chiumello%NULL%3,         Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,         Silvia%Coppola%NULL%2,         Silvia%Coppola%NULL%0,         Massimo%Cressoni%NULL%1,         Mattia%Busana%NULL%2,         Mattia%Busana%NULL%0,         Sandra%Rossi%NULL%0,         Sandra%Rossi%NULL%0,         Davide%Chiumello%NULL%0,         Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,         Karen%Cimon%NULL%1,         Melissa%Severn%NULL%1,         Carmem L.%Pessoa-Silva%NULL%1,         John%Conly%NULL%1,         Malcolm Gracie%Semple%NULL%2,         Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -509,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -538,7 +556,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -567,7 +585,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="64">
   <si>
     <t>Doi</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,         Karen%Cimon%NULL%1,         Melissa%Severn%NULL%1,         Carmem L.%Pessoa-Silva%NULL%1,         John%Conly%NULL%1,         Malcolm Gracie%Semple%NULL%2,         Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,          Davide%Chiumello%NULL%3,          Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,          Silvia%Coppola%NULL%2,          Silvia%Coppola%NULL%0,          Massimo%Cressoni%NULL%1,          Mattia%Busana%NULL%2,          Mattia%Busana%NULL%0,          Sandra%Rossi%NULL%0,          Sandra%Rossi%NULL%0,          Davide%Chiumello%NULL%0,          Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,          Karen%Cimon%NULL%1,          Melissa%Severn%NULL%1,          Carmem L.%Pessoa-Silva%NULL%1,          John%Conly%NULL%1,          Malcolm Gracie%Semple%NULL%2,          Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,           Davide%Chiumello%NULL%3,           Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,           Silvia%Coppola%NULL%2,           Silvia%Coppola%NULL%0,           Massimo%Cressoni%NULL%1,           Mattia%Busana%NULL%2,           Mattia%Busana%NULL%0,           Sandra%Rossi%NULL%0,           Sandra%Rossi%NULL%0,           Davide%Chiumello%NULL%0,           Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,           Karen%Cimon%NULL%1,           Melissa%Severn%NULL%1,           Carmem L.%Pessoa-Silva%NULL%1,           John%Conly%NULL%1,           Malcolm Gracie%Semple%NULL%2,           Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -527,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -556,7 +574,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -585,7 +603,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="70">
   <si>
     <t>Doi</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,           Karen%Cimon%NULL%1,           Melissa%Severn%NULL%1,           Carmem L.%Pessoa-Silva%NULL%1,           John%Conly%NULL%1,           Malcolm Gracie%Semple%NULL%2,           Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,            Davide%Chiumello%NULL%3,            Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,            Silvia%Coppola%NULL%2,            Silvia%Coppola%NULL%0,            Massimo%Cressoni%NULL%1,            Mattia%Busana%NULL%2,            Mattia%Busana%NULL%0,            Sandra%Rossi%NULL%0,            Sandra%Rossi%NULL%0,            Davide%Chiumello%NULL%0,            Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,            Karen%Cimon%NULL%1,            Melissa%Severn%NULL%1,            Carmem L.%Pessoa-Silva%NULL%1,            John%Conly%NULL%1,            Malcolm Gracie%Semple%NULL%2,            Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,             Davide%Chiumello%NULL%3,             Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,             Silvia%Coppola%NULL%2,             Silvia%Coppola%NULL%0,             Massimo%Cressoni%NULL%1,             Mattia%Busana%NULL%2,             Mattia%Busana%NULL%0,             Sandra%Rossi%NULL%0,             Sandra%Rossi%NULL%0,             Davide%Chiumello%NULL%0,             Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,             Karen%Cimon%NULL%1,             Melissa%Severn%NULL%1,             Carmem L.%Pessoa-Silva%NULL%1,             John%Conly%NULL%1,             Malcolm Gracie%Semple%NULL%2,             Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -574,7 +592,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -603,7 +621,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="73">
   <si>
     <t>Doi</t>
   </si>
@@ -233,6 +233,15 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,             Karen%Cimon%NULL%1,             Melissa%Severn%NULL%1,             Carmem L.%Pessoa-Silva%NULL%1,             John%Conly%NULL%1,             Malcolm Gracie%Semple%NULL%2,             Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,              Davide%Chiumello%NULL%3,              Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,              Silvia%Coppola%NULL%2,              Silvia%Coppola%NULL%0,              Massimo%Cressoni%NULL%1,              Mattia%Busana%NULL%2,              Mattia%Busana%NULL%0,              Sandra%Rossi%NULL%0,              Sandra%Rossi%NULL%0,              Davide%Chiumello%NULL%0,              Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,              Karen%Cimon%NULL%1,              Melissa%Severn%NULL%1,              Carmem L.%Pessoa-Silva%NULL%1,              John%Conly%NULL%1,              Malcolm Gracie%Semple%NULL%2,              Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -563,7 +572,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -592,7 +601,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -621,7 +630,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="76">
   <si>
     <t>Doi</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,              Karen%Cimon%NULL%1,              Melissa%Severn%NULL%1,              Carmem L.%Pessoa-Silva%NULL%1,              John%Conly%NULL%1,              Malcolm Gracie%Semple%NULL%2,              Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,               Davide%Chiumello%NULL%3,               Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,               Silvia%Coppola%NULL%2,               Silvia%Coppola%NULL%0,               Massimo%Cressoni%NULL%1,               Mattia%Busana%NULL%2,               Mattia%Busana%NULL%0,               Sandra%Rossi%NULL%0,               Sandra%Rossi%NULL%0,               Davide%Chiumello%NULL%0,               Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,               Karen%Cimon%NULL%1,               Melissa%Severn%NULL%1,               Carmem L.%Pessoa-Silva%NULL%1,               John%Conly%NULL%1,               Malcolm Gracie%Semple%NULL%2,               Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -572,7 +581,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -601,7 +610,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -630,7 +639,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="82">
   <si>
     <t>Doi</t>
   </si>
@@ -251,6 +251,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,               Karen%Cimon%NULL%1,               Melissa%Severn%NULL%1,               Carmem L.%Pessoa-Silva%NULL%1,               John%Conly%NULL%1,               Malcolm Gracie%Semple%NULL%2,               Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                Davide%Chiumello%NULL%3,                Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                Silvia%Coppola%NULL%2,                Silvia%Coppola%NULL%0,                Massimo%Cressoni%NULL%1,                Mattia%Busana%NULL%2,                Mattia%Busana%NULL%0,                Sandra%Rossi%NULL%0,                Sandra%Rossi%NULL%0,                Davide%Chiumello%NULL%0,                Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                Karen%Cimon%NULL%1,                Melissa%Severn%NULL%1,                Carmem L.%Pessoa-Silva%NULL%1,                John%Conly%NULL%1,                Malcolm Gracie%Semple%NULL%2,                Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                 Davide%Chiumello%NULL%3,                 Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                 Silvia%Coppola%NULL%2,                 Silvia%Coppola%NULL%0,                 Massimo%Cressoni%NULL%1,                 Mattia%Busana%NULL%2,                 Mattia%Busana%NULL%0,                 Sandra%Rossi%NULL%0,                 Sandra%Rossi%NULL%0,                 Davide%Chiumello%NULL%0,                 Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                 Karen%Cimon%NULL%1,                 Melissa%Severn%NULL%1,                 Carmem L.%Pessoa-Silva%NULL%1,                 John%Conly%NULL%1,                 Malcolm Gracie%Semple%NULL%2,                 Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -581,7 +599,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -610,7 +628,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -639,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="85">
   <si>
     <t>Doi</t>
   </si>
@@ -269,6 +269,15 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,                 Karen%Cimon%NULL%1,                 Melissa%Severn%NULL%1,                 Carmem L.%Pessoa-Silva%NULL%1,                 John%Conly%NULL%1,                 Malcolm Gracie%Semple%NULL%2,                 Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                  Davide%Chiumello%NULL%3,                  Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                  Silvia%Coppola%NULL%2,                  Silvia%Coppola%NULL%0,                  Massimo%Cressoni%NULL%1,                  Mattia%Busana%NULL%2,                  Mattia%Busana%NULL%0,                  Sandra%Rossi%NULL%0,                  Sandra%Rossi%NULL%0,                  Davide%Chiumello%NULL%0,                  Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                  Karen%Cimon%NULL%1,                  Melissa%Severn%NULL%1,                  Carmem L.%Pessoa-Silva%NULL%1,                  John%Conly%NULL%1,                  Malcolm Gracie%Semple%NULL%2,                  Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -628,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -657,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="90">
   <si>
     <t>Doi</t>
   </si>
@@ -278,6 +278,21 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,                  Karen%Cimon%NULL%1,                  Melissa%Severn%NULL%1,                  Carmem L.%Pessoa-Silva%NULL%1,                  John%Conly%NULL%1,                  Malcolm Gracie%Semple%NULL%2,                  Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                   Davide%Chiumello%NULL%3,                   Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                   Silvia%Coppola%NULL%2,                   Silvia%Coppola%NULL%0,                   Massimo%Cressoni%NULL%1,                   Mattia%Busana%NULL%2,                   Mattia%Busana%NULL%0,                   Sandra%Rossi%NULL%0,                   Sandra%Rossi%NULL%0,                   Davide%Chiumello%NULL%0,                   Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                   Karen%Cimon%NULL%1,                   Melissa%Severn%NULL%1,                   Carmem L.%Pessoa-Silva%NULL%1,                   John%Conly%NULL%1,                   Malcolm Gracie%Semple%NULL%2,                   Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -608,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -620,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -637,7 +652,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -649,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -666,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -678,7 +693,7 @@
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="93">
   <si>
     <t>Doi</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,                   Karen%Cimon%NULL%1,                   Melissa%Severn%NULL%1,                   Carmem L.%Pessoa-Silva%NULL%1,                   John%Conly%NULL%1,                   Malcolm Gracie%Semple%NULL%2,                   Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                    Davide%Chiumello%NULL%3,                    Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                    Silvia%Coppola%NULL%2,                    Silvia%Coppola%NULL%0,                    Massimo%Cressoni%NULL%1,                    Mattia%Busana%NULL%2,                    Mattia%Busana%NULL%0,                    Sandra%Rossi%NULL%0,                    Sandra%Rossi%NULL%0,                    Davide%Chiumello%NULL%0,                    Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                    Karen%Cimon%NULL%1,                    Melissa%Severn%NULL%1,                    Carmem L.%Pessoa-Silva%NULL%1,                    John%Conly%NULL%1,                    Malcolm Gracie%Semple%NULL%2,                    Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -652,7 +661,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -681,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="109">
   <si>
     <t>Doi</t>
   </si>
@@ -302,6 +302,54 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,                    Karen%Cimon%NULL%1,                    Melissa%Severn%NULL%1,                    Carmem L.%Pessoa-Silva%NULL%1,                    John%Conly%NULL%1,                    Malcolm Gracie%Semple%NULL%2,                    Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                     Davide%Chiumello%NULL%3,                     Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                     Silvia%Coppola%NULL%2,                     Silvia%Coppola%NULL%0,                     Massimo%Cressoni%NULL%1,                     Mattia%Busana%NULL%2,                     Mattia%Busana%NULL%0,                     Sandra%Rossi%NULL%0,                     Sandra%Rossi%NULL%0,                     Davide%Chiumello%NULL%0,                     Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                     Karen%Cimon%NULL%1,                     Melissa%Severn%NULL%1,                     Carmem L.%Pessoa-Silva%NULL%1,                     John%Conly%NULL%1,                     Malcolm Gracie%Semple%NULL%2,                     Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                      Davide%Chiumello%NULL%3,                      Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                      Silvia%Coppola%NULL%2,                      Silvia%Coppola%NULL%0,                      Massimo%Cressoni%NULL%1,                      Mattia%Busana%NULL%2,                      Mattia%Busana%NULL%0,                      Sandra%Rossi%NULL%0,                      Sandra%Rossi%NULL%0,                      Davide%Chiumello%NULL%0,                      Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                      Karen%Cimon%NULL%1,                      Melissa%Severn%NULL%1,                      Carmem L.%Pessoa-Silva%NULL%1,                      John%Conly%NULL%1,                      Malcolm Gracie%Semple%NULL%2,                      Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                       Davide%Chiumello%NULL%3,                       Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                       Silvia%Coppola%NULL%2,                       Silvia%Coppola%NULL%0,                       Massimo%Cressoni%NULL%1,                       Mattia%Busana%NULL%2,                       Mattia%Busana%NULL%0,                       Sandra%Rossi%NULL%0,                       Sandra%Rossi%NULL%0,                       Davide%Chiumello%NULL%0,                       Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                       Karen%Cimon%NULL%1,                       Melissa%Severn%NULL%1,                       Carmem L.%Pessoa-Silva%NULL%1,                       John%Conly%NULL%1,                       Malcolm Gracie%Semple%NULL%2,                       Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                        Davide%Chiumello%NULL%3,                        Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                        Silvia%Coppola%NULL%2,                        Silvia%Coppola%NULL%0,                        Massimo%Cressoni%NULL%1,                        Mattia%Busana%NULL%2,                        Mattia%Busana%NULL%0,                        Sandra%Rossi%NULL%0,                        Sandra%Rossi%NULL%0,                        Davide%Chiumello%NULL%0,                        Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                        Karen%Cimon%NULL%1,                        Melissa%Severn%NULL%1,                        Carmem L.%Pessoa-Silva%NULL%1,                        John%Conly%NULL%1,                        Malcolm Gracie%Semple%NULL%2,                        Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                         Davide%Chiumello%NULL%3,                         Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                         Silvia%Coppola%NULL%2,                         Silvia%Coppola%NULL%0,                         Massimo%Cressoni%NULL%1,                         Mattia%Busana%NULL%2,                         Mattia%Busana%NULL%0,                         Sandra%Rossi%NULL%0,                         Sandra%Rossi%NULL%0,                         Davide%Chiumello%NULL%0,                         Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                         Karen%Cimon%NULL%1,                         Melissa%Severn%NULL%1,                         Carmem L.%Pessoa-Silva%NULL%1,                         John%Conly%NULL%1,                         Malcolm Gracie%Semple%NULL%2,                         Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -617,6 +665,9 @@
       <c r="I1" t="s">
         <v>34</v>
       </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -632,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -645,6 +696,9 @@
       </c>
       <c r="I2" t="s">
         <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -661,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -674,6 +728,9 @@
       </c>
       <c r="I3" t="s">
         <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -690,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -703,6 +760,9 @@
       </c>
       <c r="I4" t="s">
         <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/24.xlsx
+++ b/Covid_19_Dataset_and_References/References/24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="115">
   <si>
     <t>Doi</t>
   </si>
@@ -350,6 +350,24 @@
   </si>
   <si>
     <t>[Khai%Tran%NULL%1,                         Karen%Cimon%NULL%1,                         Melissa%Severn%NULL%1,                         Carmem L.%Pessoa-Silva%NULL%1,                         John%Conly%NULL%1,                         Malcolm Gracie%Semple%NULL%2,                         Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                          Davide%Chiumello%NULL%3,                          Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                          Silvia%Coppola%NULL%2,                          Silvia%Coppola%NULL%0,                          Massimo%Cressoni%NULL%1,                          Mattia%Busana%NULL%2,                          Mattia%Busana%NULL%0,                          Sandra%Rossi%NULL%0,                          Sandra%Rossi%NULL%0,                          Davide%Chiumello%NULL%0,                          Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                          Karen%Cimon%NULL%1,                          Melissa%Severn%NULL%1,                          Carmem L.%Pessoa-Silva%NULL%1,                          John%Conly%NULL%1,                          Malcolm Gracie%Semple%NULL%2,                          Malcolm Gracie%Semple%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%gattinoniluciano@gmail.com%2,                           Davide%Chiumello%NULL%3,                           Sandra%Rossi%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Luciano%Gattinoni%NULL%0,                           Silvia%Coppola%NULL%2,                           Silvia%Coppola%NULL%0,                           Massimo%Cressoni%NULL%1,                           Mattia%Busana%NULL%2,                           Mattia%Busana%NULL%0,                           Sandra%Rossi%NULL%0,                           Sandra%Rossi%NULL%0,                           Davide%Chiumello%NULL%0,                           Davide%Chiumello%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Khai%Tran%NULL%1,                           Karen%Cimon%NULL%1,                           Melissa%Severn%NULL%1,                           Carmem L.%Pessoa-Silva%NULL%1,                           John%Conly%NULL%1,                           Malcolm Gracie%Semple%NULL%2,                           Malcolm Gracie%Semple%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -683,7 +701,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -715,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -747,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
